--- a/Domain Model.xlsx
+++ b/Domain Model.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Recipe Guide" sheetId="2" r:id="rId1"/>
+    <sheet name="Restolist" sheetId="1" r:id="rId2"/>
+    <sheet name="TeamRater" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" calcMode="autoNoTable" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
   <si>
     <t>Users</t>
   </si>
@@ -82,6 +84,57 @@
   </si>
   <si>
     <t>Menu Items</t>
+  </si>
+  <si>
+    <t>Restaurants</t>
+  </si>
+  <si>
+    <t>Cuisine (string)</t>
+  </si>
+  <si>
+    <t>Reviews</t>
+  </si>
+  <si>
+    <t>Review (text)</t>
+  </si>
+  <si>
+    <t>Restaurant_id (int)</t>
+  </si>
+  <si>
+    <t>Location (text)</t>
+  </si>
+  <si>
+    <t>Rating (int)</t>
+  </si>
+  <si>
+    <t>Notes (text)</t>
+  </si>
+  <si>
+    <t>User_id (int)</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Description (text)</t>
+  </si>
+  <si>
+    <t>Class_ID (int)</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Team_Members</t>
+  </si>
+  <si>
+    <t>Team_ID (int)</t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>Team_Member_ID (int)</t>
   </si>
 </sst>
 </file>
@@ -94,7 +147,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,8 +265,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -243,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -251,6 +319,14 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -258,6 +334,14 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -589,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E46" sqref="E46:G46"/>
     </sheetView>
   </sheetViews>
@@ -1007,4 +1091,835 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="7">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>13</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="7">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="4">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="4">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="7">
+        <v>5</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="4">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="4">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="7">
+        <v>5</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="4">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="7">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="7">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="4">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="4">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="7">
+        <v>5</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="4">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="4">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="7">
+        <v>5</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>